--- a/Existencias por almacen.xlsx
+++ b/Existencias por almacen.xlsx
@@ -103,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -112,6 +112,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +412,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -439,7 +442,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">

--- a/Existencias por almacen.xlsx
+++ b/Existencias por almacen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>SYS</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>MIALMA</t>
-  </si>
-  <si>
-    <t>200</t>
   </si>
   <si>
     <t>FINARCHIVO</t>
@@ -412,7 +409,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -429,10 +426,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -443,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -454,16 +451,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="4">
+        <v>500</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="4:4">
@@ -492,7 +489,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -512,7 +509,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Existencias por almacen.xlsx
+++ b/Existencias por almacen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>SYS</t>
   </si>
@@ -23,9 +23,6 @@
     <t>EXISTENCIA INICIAL</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t xml:space="preserve">Notas: </t>
   </si>
   <si>
@@ -38,9 +35,6 @@
     <t>Si el almácen no existe al intentar de agregar las existencias inciales será creado automáticamente</t>
   </si>
   <si>
-    <t>MIALMA</t>
-  </si>
-  <si>
     <t>FINARCHIVO</t>
   </si>
   <si>
@@ -53,10 +47,13 @@
     <t>CODIGO PRODUCTO</t>
   </si>
   <si>
-    <t>SABRI500</t>
-  </si>
-  <si>
     <t>La fila y columnas de CODIGO ALMACEN, CODIGO PRODUCTO y EXISTENCIA INICIAL no deben ser modificadas</t>
+  </si>
+  <si>
+    <t>PROD100</t>
+  </si>
+  <si>
+    <t>JAMFOOD100</t>
   </si>
 </sst>
 </file>
@@ -100,14 +97,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -409,7 +405,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -426,10 +422,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -439,28 +435,28 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
-        <v>500</v>
+      <c r="C3" s="1">
+        <v>200</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="4:4">
@@ -484,32 +480,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
+      <c r="A3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Existencias por almacen.xlsx
+++ b/Existencias por almacen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>SYS</t>
   </si>
@@ -50,10 +50,13 @@
     <t>La fila y columnas de CODIGO ALMACEN, CODIGO PRODUCTO y EXISTENCIA INICIAL no deben ser modificadas</t>
   </si>
   <si>
-    <t>PROD100</t>
-  </si>
-  <si>
     <t>JAMFOOD100</t>
+  </si>
+  <si>
+    <t>SABRI500</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -105,9 +108,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -435,11 +435,11 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>200</v>
